--- a/Files/ExpResult/O9-maoyan-遗传算法.xlsx
+++ b/Files/ExpResult/O9-maoyan-遗传算法.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14880"/>
+    <workbookView windowWidth="32580" windowHeight="15080"/>
   </bookViews>
   <sheets>
-    <sheet name="O9-maoyan-遗传算法" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
   <si>
     <t>实例</t>
   </si>
@@ -62,6 +62,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>最佳解训练时间(秒)</t>
+  </si>
+  <si>
     <t>O9-maoyan</t>
   </si>
   <si>
@@ -71,7 +74,7 @@
     <t>[[5], [8, 2, 6, 1, 9, 7, 3], [4]]</t>
   </si>
   <si>
-    <t>None</t>
+    <t/>
   </si>
   <si>
     <t>[[4], [3, 7, 9, 1, 6, 2, 8], [5]]</t>
@@ -143,26 +146,83 @@
     <t>[[4, 7], [2, 1, 3], [6, 9, 8], [5]]</t>
   </si>
   <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <t>最小值</t>
+    <t>[[8, 2, 1, 5], [7, 4, 6, 9, 3]]</t>
+  </si>
+  <si>
+    <t>K分初始解v3-奖励函数v1</t>
+  </si>
+  <si>
+    <t>[[7, 4, 1, 2], [8, 3, 6, 9, 5]]</t>
+  </si>
+  <si>
+    <t>[[2, 5], [7, 9], [4, 1, 6, 3, 8]]</t>
+  </si>
+  <si>
+    <t>[[7, 4, 1, 8], [3, 2, 6, 9, 5]]</t>
+  </si>
+  <si>
+    <t>[[8, 2, 7, 4], [5, 9, 6, 1, 3]]</t>
+  </si>
+  <si>
+    <t>[[5, 9, 6, 3], [8, 2, 1, 4, 7]]</t>
+  </si>
+  <si>
+    <t>[[7, 8], [4, 1], [3, 2, 6, 9, 5]]</t>
+  </si>
+  <si>
+    <t>[[1, 4, 7, 8], [5, 6, 9, 2, 3]]</t>
+  </si>
+  <si>
+    <t>[[5, 1, 2, 8], [3, 9, 6, 4, 7]]</t>
+  </si>
+  <si>
+    <t>[[3, 8], [5, 1], [2, 9, 6, 7, 4]]</t>
+  </si>
+  <si>
+    <t>[[8, 7, 2], [4], [3, 9, 6, 1, 5]]</t>
+  </si>
+  <si>
+    <t>[[3, 2, 9, 6, 5], [8, 7, 4, 1]]</t>
+  </si>
+  <si>
+    <t>[[4, 7, 2, 8], [3, 1, 6, 9, 5]]</t>
+  </si>
+  <si>
+    <t>[[8, 2, 1, 4, 7], [5, 9, 6, 3]]</t>
+  </si>
+  <si>
+    <t>[[3, 2, 6, 9, 5], [7, 4, 1, 8]]</t>
+  </si>
+  <si>
+    <t>[[5, 9, 6, 2, 3], [1, 4], [8, 7]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,12 +569,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,31 +692,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,131 +714,136 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -827,221 +896,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1051,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1061,39 +916,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1125,7 +980,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1160,7 +1014,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1172,131 +1025,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1308,81 +1190,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="4" max="4" width="29.7980769230769" customWidth="1"/>
-    <col min="5" max="5" width="30.4519230769231" customWidth="1"/>
-    <col min="7" max="7" width="19.2307692307692" customWidth="1"/>
-    <col min="8" max="8" width="20.0288461538462" customWidth="1"/>
-    <col min="9" max="9" width="19.5480769230769" customWidth="1"/>
-    <col min="10" max="10" width="17.7788461538462" customWidth="1"/>
+    <col min="4" max="4" width="26.9134615384615" customWidth="1"/>
+    <col min="6" max="6" width="23.7115384615385" customWidth="1"/>
+    <col min="7" max="7" width="30.2884615384615" customWidth="1"/>
+    <col min="8" max="8" width="25.7980769230769" customWidth="1"/>
+    <col min="11" max="11" width="24.3557692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>260.58608058608</v>
       </c>
       <c r="F2" s="2">
-        <v>45746.8515886785</v>
+        <v>45746.8515886805</v>
       </c>
       <c r="G2" s="2">
-        <v>45746.8516944177</v>
+        <v>45746.8516944213</v>
       </c>
       <c r="H2" s="2">
-        <v>45746.8517078745</v>
+        <v>45746.8517078704</v>
       </c>
       <c r="I2">
         <v>10.298537</v>
@@ -1391,33 +1275,36 @@
         <v>9.135869</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>260.58608058608</v>
       </c>
       <c r="F3" s="2">
-        <v>45746.8517101098</v>
+        <v>45746.8517101042</v>
       </c>
       <c r="G3" s="2">
-        <v>45746.8518039188</v>
+        <v>45746.8518039236</v>
       </c>
       <c r="H3" s="2">
-        <v>45746.8518290219</v>
+        <v>45746.8518290162</v>
       </c>
       <c r="I3">
         <v>10.274007</v>
@@ -1426,33 +1313,36 @@
         <v>8.105096</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4">
         <v>249.197271083347</v>
       </c>
       <c r="F4" s="2">
-        <v>45746.8518310478</v>
+        <v>45746.8518310532</v>
       </c>
       <c r="G4" s="2">
-        <v>45746.8519396585</v>
+        <v>45746.8519396528</v>
       </c>
       <c r="H4" s="2">
-        <v>45746.8519469633</v>
+        <v>45746.8519469676</v>
       </c>
       <c r="I4">
         <v>10.015096</v>
@@ -1461,33 +1351,36 @@
         <v>9.383965</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>307.663003663003</v>
       </c>
       <c r="F5" s="2">
-        <v>45746.8519492935</v>
+        <v>45746.851949294</v>
       </c>
       <c r="G5" s="2">
-        <v>45746.8519597555</v>
+        <v>45746.8519597569</v>
       </c>
       <c r="H5" s="2">
-        <v>45746.8520674883</v>
+        <v>45746.8520674884</v>
       </c>
       <c r="I5">
         <v>10.212036</v>
@@ -1496,33 +1389,36 @@
         <v>0.903923</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6">
         <v>266.128643586235</v>
       </c>
       <c r="F6" s="2">
-        <v>45746.8520697803</v>
+        <v>45746.8520697801</v>
       </c>
       <c r="G6" s="2">
-        <v>45746.8521281509</v>
+        <v>45746.8521281482</v>
       </c>
       <c r="H6" s="2">
-        <v>45746.8521891137</v>
+        <v>45746.8521891088</v>
       </c>
       <c r="I6">
         <v>10.310405</v>
@@ -1531,33 +1427,36 @@
         <v>5.04322</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>266.737219953647</v>
       </c>
       <c r="F7" s="2">
-        <v>45746.8521913793</v>
+        <v>45746.8521913773</v>
       </c>
       <c r="G7" s="2">
-        <v>45746.8522640955</v>
+        <v>45746.8522640972</v>
       </c>
       <c r="H7" s="2">
-        <v>45746.852311195</v>
+        <v>45746.8523111921</v>
       </c>
       <c r="I7">
         <v>10.352078</v>
@@ -1566,33 +1465,36 @@
         <v>6.282679</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>243.445182724252</v>
       </c>
       <c r="F8" s="2">
-        <v>45746.8523134918</v>
+        <v>45746.8523134954</v>
       </c>
       <c r="G8" s="2">
-        <v>45746.8523826919</v>
+        <v>45746.8523826968</v>
       </c>
       <c r="H8" s="2">
-        <v>45746.8524331231</v>
+        <v>45746.852433125</v>
       </c>
       <c r="I8">
         <v>10.336141</v>
@@ -1601,33 +1503,36 @@
         <v>5.978882</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9">
         <v>261.205128205128</v>
       </c>
       <c r="F9" s="2">
-        <v>45746.8524353871</v>
+        <v>45746.8524353819</v>
       </c>
       <c r="G9" s="2">
-        <v>45746.8525496856</v>
+        <v>45746.8525496875</v>
       </c>
       <c r="H9" s="2">
-        <v>45746.8525546284</v>
+        <v>45746.8525546296</v>
       </c>
       <c r="I9">
         <v>10.302445</v>
@@ -1636,33 +1541,36 @@
         <v>9.875384</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1">
+        <v>23</v>
+      </c>
+      <c r="E10">
         <v>246.927831662008</v>
       </c>
       <c r="F10" s="2">
-        <v>45746.852556939</v>
+        <v>45746.8525569444</v>
       </c>
       <c r="G10" s="2">
-        <v>45746.8525871101</v>
+        <v>45746.8525871065</v>
       </c>
       <c r="H10" s="2">
-        <v>45746.8526764885</v>
+        <v>45746.8526764931</v>
       </c>
       <c r="I10">
         <v>10.329079</v>
@@ -1671,33 +1579,36 @@
         <v>2.60678</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11">
         <v>263.852415026833</v>
       </c>
       <c r="F11" s="2">
-        <v>45746.8526788379</v>
+        <v>45746.8526788426</v>
       </c>
       <c r="G11" s="2">
-        <v>45746.85278767</v>
+        <v>45746.8527876736</v>
       </c>
       <c r="H11" s="2">
-        <v>45746.85279809</v>
+        <v>45746.8527980903</v>
       </c>
       <c r="I11">
         <v>10.303384</v>
@@ -1706,33 +1617,36 @@
         <v>9.403101</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12">
         <v>243.872987477638</v>
       </c>
       <c r="F12" s="2">
-        <v>45746.8528003445</v>
+        <v>45746.8528003472</v>
       </c>
       <c r="G12" s="2">
-        <v>45746.8529179063</v>
+        <v>45746.8529179051</v>
       </c>
       <c r="H12" s="2">
-        <v>45746.8529237476</v>
+        <v>45746.85292375</v>
       </c>
       <c r="I12">
         <v>10.662031</v>
@@ -1741,33 +1655,36 @@
         <v>10.157344</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1">
+        <v>26</v>
+      </c>
+      <c r="E13">
         <v>263.392020860495</v>
       </c>
       <c r="F13" s="2">
-        <v>45746.8529259956</v>
+        <v>45746.8529259954</v>
       </c>
       <c r="G13" s="2">
-        <v>45746.8530382025</v>
+        <v>45746.853038206</v>
       </c>
       <c r="H13" s="2">
-        <v>45746.8530489321</v>
+        <v>45746.8530489352</v>
       </c>
       <c r="I13">
         <v>10.621714</v>
@@ -1776,33 +1693,36 @@
         <v>9.694676</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>269.711505737597</v>
       </c>
       <c r="F14" s="2">
-        <v>45746.8530514838</v>
+        <v>45746.8530514815</v>
       </c>
       <c r="G14" s="2">
-        <v>45746.853109778</v>
+        <v>45746.8531097801</v>
       </c>
       <c r="H14" s="2">
-        <v>45746.8531719933</v>
+        <v>45746.8531719907</v>
       </c>
       <c r="I14">
         <v>10.41202</v>
@@ -1811,33 +1731,36 @@
         <v>5.036615</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1">
+        <v>28</v>
+      </c>
+      <c r="E15">
         <v>266.621794871794</v>
       </c>
       <c r="F15" s="2">
-        <v>45746.8531742133</v>
+        <v>45746.853174213</v>
       </c>
       <c r="G15" s="2">
-        <v>45746.8532921599</v>
+        <v>45746.8532921643</v>
       </c>
       <c r="H15" s="2">
-        <v>45746.8532959822</v>
+        <v>45746.8532959838</v>
       </c>
       <c r="I15">
         <v>10.520831</v>
@@ -1846,33 +1769,36 @@
         <v>10.190583</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1">
+        <v>29</v>
+      </c>
+      <c r="E16">
         <v>308.078493826083</v>
       </c>
       <c r="F16" s="2">
-        <v>45746.8532981874</v>
+        <v>45746.8532981829</v>
       </c>
       <c r="G16" s="2">
-        <v>45746.8533726799</v>
+        <v>45746.8533726852</v>
       </c>
       <c r="H16" s="2">
-        <v>45746.8534197818</v>
+        <v>45746.8534197801</v>
       </c>
       <c r="I16">
         <v>10.505759</v>
@@ -1881,33 +1807,36 @@
         <v>6.436152</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+      <c r="E17">
         <v>256.152706200869</v>
       </c>
       <c r="F17" s="2">
-        <v>45746.8534218567</v>
+        <v>45746.8534218518</v>
       </c>
       <c r="G17" s="2">
-        <v>45746.8534869111</v>
+        <v>45746.8534869097</v>
       </c>
       <c r="H17" s="2">
-        <v>45746.8535429024</v>
+        <v>45746.8535429051</v>
       </c>
       <c r="I17">
         <v>10.458352</v>
@@ -1916,33 +1845,36 @@
         <v>5.620699</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1">
+        <v>31</v>
+      </c>
+      <c r="E18">
         <v>307.663003663003</v>
       </c>
       <c r="F18" s="2">
-        <v>45746.8535452664</v>
+        <v>45746.8535452662</v>
       </c>
       <c r="G18" s="2">
-        <v>45746.8536566687</v>
+        <v>45746.8536566667</v>
       </c>
       <c r="H18" s="2">
-        <v>45746.8536650352</v>
+        <v>45746.8536650347</v>
       </c>
       <c r="I18">
         <v>10.348019</v>
@@ -1951,33 +1883,36 @@
         <v>9.625161</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1">
+        <v>32</v>
+      </c>
+      <c r="E19">
         <v>263.526556776556</v>
       </c>
       <c r="F19" s="2">
-        <v>45746.8536673648</v>
+        <v>45746.8536673611</v>
       </c>
       <c r="G19" s="2">
-        <v>45746.8537553194</v>
+        <v>45746.8537553241</v>
       </c>
       <c r="H19" s="2">
-        <v>45746.8537864417</v>
+        <v>45746.8537864468</v>
       </c>
       <c r="I19">
         <v>10.288249</v>
@@ -1986,33 +1921,36 @@
         <v>7.599283</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1">
+        <v>33</v>
+      </c>
+      <c r="E20">
         <v>261.409102525381</v>
       </c>
       <c r="F20" s="2">
-        <v>45746.853788817</v>
+        <v>45746.8537888194</v>
       </c>
       <c r="G20" s="2">
-        <v>45746.853871674</v>
+        <v>45746.8538716782</v>
       </c>
       <c r="H20" s="2">
-        <v>45746.8539129508</v>
+        <v>45746.8539129514</v>
       </c>
       <c r="I20">
         <v>10.72516</v>
@@ -2021,33 +1959,36 @@
         <v>7.158844</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1">
+        <v>34</v>
+      </c>
+      <c r="E21">
         <v>269.877828054298</v>
       </c>
       <c r="F21" s="2">
-        <v>45746.8539155372</v>
+        <v>45746.8539155324</v>
       </c>
       <c r="G21" s="2">
-        <v>45746.8540116007</v>
+        <v>45746.8540115972</v>
       </c>
       <c r="H21" s="2">
-        <v>45746.8540375878</v>
+        <v>45746.8540375926</v>
       </c>
       <c r="I21">
         <v>10.545169</v>
@@ -2056,33 +1997,36 @@
         <v>8.299889</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1">
+        <v>35</v>
+      </c>
+      <c r="E22">
         <v>266.119751657371</v>
       </c>
       <c r="F22" s="2">
-        <v>45746.8540398356</v>
+        <v>45746.854039838</v>
       </c>
       <c r="G22" s="2">
-        <v>45746.8541176325</v>
+        <v>45746.8541176273</v>
       </c>
       <c r="H22" s="2">
-        <v>45746.8541607345</v>
+        <v>45746.8541607292</v>
       </c>
       <c r="I22">
         <v>10.445667</v>
@@ -2091,33 +2035,36 @@
         <v>6.721656</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1">
+        <v>36</v>
+      </c>
+      <c r="E23">
         <v>248.195804195804</v>
       </c>
       <c r="F23" s="2">
-        <v>45746.8541632583</v>
+        <v>45746.8541632639</v>
       </c>
       <c r="G23" s="2">
-        <v>45746.8542380969</v>
+        <v>45746.8542381018</v>
       </c>
       <c r="H23" s="2">
-        <v>45746.8542864684</v>
+        <v>45746.8542864699</v>
       </c>
       <c r="I23">
         <v>10.645347</v>
@@ -2126,33 +2073,36 @@
         <v>6.466055</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="E24">
         <v>307.663003663003</v>
       </c>
       <c r="F24" s="2">
-        <v>45746.8542888215</v>
+        <v>45746.8542888194</v>
       </c>
       <c r="G24" s="2">
-        <v>45746.8542986561</v>
+        <v>45746.8542986574</v>
       </c>
       <c r="H24" s="2">
-        <v>45746.8544108755</v>
+        <v>45746.8544108796</v>
       </c>
       <c r="I24">
         <v>10.545464</v>
@@ -2161,33 +2111,36 @@
         <v>0.84971</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="E25">
         <v>256.152706200869</v>
       </c>
       <c r="F25" s="2">
-        <v>45746.8544132135</v>
+        <v>45746.8544132176</v>
       </c>
       <c r="G25" s="2">
-        <v>45746.8545133065</v>
+        <v>45746.8545133102</v>
       </c>
       <c r="H25" s="2">
-        <v>45746.8545377681</v>
+        <v>45746.8545377662</v>
       </c>
       <c r="I25">
         <v>10.761523</v>
@@ -2196,33 +2149,36 @@
         <v>8.64804</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1">
+        <v>31</v>
+      </c>
+      <c r="E26">
         <v>307.663003663003</v>
       </c>
       <c r="F26" s="2">
-        <v>45746.8545402787</v>
+        <v>45746.8545402778</v>
       </c>
       <c r="G26" s="2">
-        <v>45746.8546141723</v>
+        <v>45746.8546141667</v>
       </c>
       <c r="H26" s="2">
-        <v>45746.8546643448</v>
+        <v>45746.8546643403</v>
       </c>
       <c r="I26">
         <v>10.71931</v>
@@ -2231,33 +2187,36 @@
         <v>6.384409</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1">
+        <v>31</v>
+      </c>
+      <c r="E27">
         <v>307.663003663003</v>
       </c>
       <c r="F27" s="2">
-        <v>45746.8546666952</v>
+        <v>45746.8546666898</v>
       </c>
       <c r="G27" s="2">
-        <v>45746.8547483528</v>
+        <v>45746.8547483565</v>
       </c>
       <c r="H27" s="2">
-        <v>45746.8547882642</v>
+        <v>45746.8547882639</v>
       </c>
       <c r="I27">
         <v>10.503566</v>
@@ -2266,33 +2225,36 @@
         <v>7.055213</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1">
+        <v>18</v>
+      </c>
+      <c r="E28">
         <v>307.663003663003</v>
       </c>
       <c r="F28" s="2">
-        <v>45746.8547905837</v>
+        <v>45746.8547905787</v>
       </c>
       <c r="G28" s="2">
-        <v>45746.8548634796</v>
+        <v>45746.8548634838</v>
       </c>
       <c r="H28" s="2">
-        <v>45746.8549108729</v>
+        <v>45746.8549108681</v>
       </c>
       <c r="I28">
         <v>10.392992</v>
@@ -2301,33 +2263,36 @@
         <v>6.29821</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="1">
+        <v>37</v>
+      </c>
+      <c r="E29">
         <v>270.134615384615</v>
       </c>
       <c r="F29" s="2">
-        <v>45746.8549131403</v>
+        <v>45746.8549131366</v>
       </c>
       <c r="G29" s="2">
-        <v>45746.8549556178</v>
+        <v>45746.8549556134</v>
       </c>
       <c r="H29" s="2">
-        <v>45746.8550371482</v>
+        <v>45746.8550371528</v>
       </c>
       <c r="I29">
         <v>10.714276</v>
@@ -2336,33 +2301,36 @@
         <v>3.670055</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1">
+        <v>38</v>
+      </c>
+      <c r="E30">
         <v>268.96923076923</v>
       </c>
       <c r="F30" s="2">
-        <v>45746.8550391578</v>
+        <v>45746.8550391551</v>
       </c>
       <c r="G30" s="2">
-        <v>45746.8551533313</v>
+        <v>45746.8551533333</v>
       </c>
       <c r="H30" s="2">
-        <v>45746.8551599279</v>
+        <v>45746.8551599306</v>
       </c>
       <c r="I30">
         <v>10.434542</v>
@@ -2371,33 +2339,36 @@
         <v>9.864596</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1">
+        <v>18</v>
+      </c>
+      <c r="E31">
         <v>307.663003663003</v>
       </c>
       <c r="F31" s="2">
-        <v>45746.8551622193</v>
+        <v>45746.8551622222</v>
       </c>
       <c r="G31" s="2">
-        <v>45746.8551859765</v>
+        <v>45746.8551859722</v>
       </c>
       <c r="H31" s="2">
-        <v>45746.8552864078</v>
+        <v>45746.855286412</v>
       </c>
       <c r="I31">
         <v>10.729881</v>
@@ -2406,46 +2377,770 @@
         <v>2.052619</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <f>AVERAGE(E2:E31)</f>
-        <v>272.817399453108</v>
+        <v>246.628637185599</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45791.8351208912</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45791.835231956</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45791.8352507292</v>
+      </c>
+      <c r="I32">
+        <v>11.218477</v>
       </c>
       <c r="J32">
-        <f>AVERAGE(J2:J31)</f>
-        <v>6.81829026666667</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
+        <v>9.595816</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32">
+        <v>9.595816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33">
-        <f>MAX(E2:E32)</f>
-        <v>308.078493826083</v>
+        <v>240.249219135295</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45791.835253588</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45791.835305706</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45791.8353855903</v>
+      </c>
+      <c r="I33">
+        <v>11.405279</v>
       </c>
       <c r="J33">
-        <f>MAX(J2:J32)</f>
-        <v>10.190583</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10">
+        <v>4.503002</v>
+      </c>
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33">
+        <v>4.503002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>90</v>
+      </c>
       <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>253.263864042934</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45791.83538875</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45791.8354940857</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45791.8355223032</v>
+      </c>
+      <c r="I34">
+        <v>11.538781</v>
+      </c>
+      <c r="J34">
+        <v>9.100953</v>
+      </c>
+      <c r="K34" t="s">
         <v>40</v>
       </c>
-      <c r="E34">
-        <f>MIN(E2:E33)</f>
-        <v>243.445182724252</v>
-      </c>
-      <c r="J34">
-        <f>MIN(J2:J33)</f>
-        <v>0.84971</v>
+      <c r="L34">
+        <v>9.100953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>239.449169435216</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45791.8355246759</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45791.8355467593</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45791.835657963</v>
+      </c>
+      <c r="I35">
+        <v>11.516331</v>
+      </c>
+      <c r="J35">
+        <v>1.908455</v>
+      </c>
+      <c r="K35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35">
+        <v>1.908455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>242.446511627907</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45791.8356603241</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45791.835699919</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45791.8357933565</v>
+      </c>
+      <c r="I36">
+        <v>11.493839</v>
+      </c>
+      <c r="J36">
+        <v>3.420716</v>
+      </c>
+      <c r="K36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36">
+        <v>3.420716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>241.363455149502</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45791.8357965162</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45791.8358818171</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45791.8359328357</v>
+      </c>
+      <c r="I37">
+        <v>11.777732</v>
+      </c>
+      <c r="J37">
+        <v>7.369287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37">
+        <v>7.369287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>238.128801431127</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45791.8359360648</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45791.8359696412</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45791.8360767245</v>
+      </c>
+      <c r="I38">
+        <v>12.153331</v>
+      </c>
+      <c r="J38">
+        <v>2.900832</v>
+      </c>
+      <c r="K38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38">
+        <v>2.900832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>249.197009966777</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45791.8360791088</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45791.8361162616</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45791.8362149537</v>
+      </c>
+      <c r="I39">
+        <v>11.737795</v>
+      </c>
+      <c r="J39">
+        <v>3.21046</v>
+      </c>
+      <c r="K39" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39">
+        <v>3.21046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>246.628637185599</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45791.8362173264</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45791.836256169</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45791.8363520949</v>
+      </c>
+      <c r="I40">
+        <v>11.643967</v>
+      </c>
+      <c r="J40">
+        <v>3.355949</v>
+      </c>
+      <c r="K40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40">
+        <v>3.355949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>253.507828627069</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45791.8363552431</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45791.8363945139</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45791.8364879745</v>
+      </c>
+      <c r="I41">
+        <v>11.468771</v>
+      </c>
+      <c r="J41">
+        <v>3.393102</v>
+      </c>
+      <c r="K41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <v>3.393102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>244.311427970115</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45791.8364903935</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45791.8365494097</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45791.8366309722</v>
+      </c>
+      <c r="I42">
+        <v>12.146213</v>
+      </c>
+      <c r="J42">
+        <v>5.099655</v>
+      </c>
+      <c r="K42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42">
+        <v>5.099655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43">
+        <v>249.197009966777</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45791.8366334028</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45791.8366871296</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45791.8367696759</v>
+      </c>
+      <c r="I43">
+        <v>11.774352</v>
+      </c>
+      <c r="J43">
+        <v>4.642338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43">
+        <v>4.642338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <v>242.446511627907</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45791.836772037</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45791.83688</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45791.8369064352</v>
+      </c>
+      <c r="I44">
+        <v>11.612246</v>
+      </c>
+      <c r="J44">
+        <v>9.327874</v>
+      </c>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44">
+        <v>9.327874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>246.628637185599</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45791.8369095602</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45791.8369760301</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45791.837045081</v>
+      </c>
+      <c r="I45">
+        <v>11.708464</v>
+      </c>
+      <c r="J45">
+        <v>5.742403</v>
+      </c>
+      <c r="K45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45">
+        <v>5.742403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>239.449169435216</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45791.8370474421</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45791.8370704167</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45791.8371845949</v>
+      </c>
+      <c r="I46">
+        <v>11.849839</v>
+      </c>
+      <c r="J46">
+        <v>1.984891</v>
+      </c>
+      <c r="K46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46">
+        <v>1.984891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>242.446511627907</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45791.8371878356</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45791.837220706</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45791.8373204861</v>
+      </c>
+      <c r="I47">
+        <v>11.461065</v>
+      </c>
+      <c r="J47">
+        <v>2.840018</v>
+      </c>
+      <c r="K47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47">
+        <v>2.840018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>241.363455149502</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45791.8373236574</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45791.8373949653</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45791.837459456</v>
+      </c>
+      <c r="I48">
+        <v>11.733861</v>
+      </c>
+      <c r="J48">
+        <v>6.161815</v>
+      </c>
+      <c r="K48" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48">
+        <v>6.161815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>239.449169435216</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45791.8374621065</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45791.8375461806</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45791.8376000232</v>
+      </c>
+      <c r="I49">
+        <v>11.916679</v>
+      </c>
+      <c r="J49">
+        <v>7.264707</v>
+      </c>
+      <c r="K49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49">
+        <v>7.264707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>238.128801431127</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45791.8376031829</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45791.8376772685</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45791.8377377431</v>
+      </c>
+      <c r="I50">
+        <v>11.626382</v>
+      </c>
+      <c r="J50">
+        <v>6.400784</v>
+      </c>
+      <c r="K50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50">
+        <v>6.400784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51">
+        <v>241.363455149502</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45791.8377408767</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45791.8377991327</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45791.8378772074</v>
+      </c>
+      <c r="I51">
+        <v>11.778972</v>
+      </c>
+      <c r="J51">
+        <v>5.033317</v>
+      </c>
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51">
+        <v>5.033317</v>
       </c>
     </row>
   </sheetData>
